--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/HBLMobileLogin.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/HBLMobileLogin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Case</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>abby</t>
+  </si>
+  <si>
+    <t>Status_query</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE DC_REGISTERED_DEVICES RD SET RD.IS_ACTIVE = 0 WHERE RD.CUSTOMER_INFO_ID=(SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND RD.DEVICE_OS='Android';COMMIT;END;</t>
   </si>
 </sst>
 </file>
@@ -357,45 +363,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12345678</v>
       </c>
     </row>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/HBLMobileLogin.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/HBLMobileLogin.xlsx
@@ -39,13 +39,13 @@
     <t>pakistan1</t>
   </si>
   <si>
+    <t>Status_query</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE DC_REGISTERED_DEVICES RD SET RD.IS_ACTIVE = 0 WHERE RD.CUSTOMER_INFO_ID=(SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND RD.DEVICE_OS='Android';COMMIT;END;</t>
+  </si>
+  <si>
     <t>abby</t>
-  </si>
-  <si>
-    <t>Status_query</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE DC_REGISTERED_DEVICES RD SET RD.IS_ACTIVE = 0 WHERE RD.CUSTOMER_INFO_ID=(SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND RD.DEVICE_OS='Android';COMMIT;END;</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +383,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -400,10 +400,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/HBLMobileLogin.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/HBLMobileLogin.xlsx
@@ -42,10 +42,10 @@
     <t>Status_query</t>
   </si>
   <si>
-    <t>BEGIN UPDATE DC_REGISTERED_DEVICES RD SET RD.IS_ACTIVE = 0 WHERE RD.CUSTOMER_INFO_ID=(SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND RD.DEVICE_OS='Android';COMMIT;END;</t>
-  </si>
-  <si>
-    <t>abby</t>
+    <t>ABBY</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE DC_REGISTERED_DEVICES RD SET RD.IS_ACTIVE = 0 WHERE RD.CUSTOMER_INFO_ID=(SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{username}') AND RD.DEVICE_OS='Android';COMMIT;END;</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,10 +400,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/HBLMobileLogin.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/HBLMobileLogin.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/HBLMobileLogin.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/HBLMobileLogin.xlsx
@@ -42,10 +42,10 @@
     <t>Status_query</t>
   </si>
   <si>
+    <t>BEGIN UPDATE DC_REGISTERED_DEVICES RD SET RD.IS_ACTIVE = 0 WHERE RD.CUSTOMER_INFO_ID=(SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{username}') AND RD.DEVICE_OS='Android';COMMIT;END;</t>
+  </si>
+  <si>
     <t>ABBY</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE DC_REGISTERED_DEVICES RD SET RD.IS_ACTIVE = 0 WHERE RD.CUSTOMER_INFO_ID=(SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{username}') AND RD.DEVICE_OS='Android';COMMIT;END;</t>
   </si>
 </sst>
 </file>
@@ -365,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,10 +400,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
